--- a/xtt_demo/ZXXT_DEMO_091_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_091_R.XLSX
@@ -328,6 +328,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing5561.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
+<file path=xl/drawings/drawing5571.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
+<file path=xl/drawings/drawing5581.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>

--- a/xtt_demo/ZXXT_DEMO_091_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_091_R.XLSX
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\!current\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8197E332-AAFE-4D1A-BAE3-5E3B499FA8DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4786A9-85A5-4B81-BC50-84F6919FAFCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="{R-TITLE}" state="veryHidden"/>
+    <sheet r:id="rId1" sheetId="1" name="Info"/>
+    <sheet r:id="rId2" sheetId="2" name="{R-TITLE}" state="veryHidden"/>
     <sheet r:id="rId556" sheetId="556" name="Sheet 1"/>
     <sheet r:id="rId557" sheetId="557" name="Sheet 2"/>
     <sheet r:id="rId558" sheetId="558" name="Sheet 3"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>&lt;Caption 1 /&gt;</t>
   </si>
@@ -75,6 +76,12 @@
     <t>&lt;Caption 9 /&gt;</t>
   </si>
   <si>
+    <t>1)Create 1st sheet like this</t>
+  </si>
+  <si>
+    <t>2)or call macro like in example 070 to save file with a new name (so the entire file would be recreated)</t>
+  </si>
+  <si>
     <t>April</t>
   </si>
   <si>
@@ -105,6 +112,9 @@
     <t>Grand totals:</t>
   </si>
   <si>
+    <t>If you have problems with printing the document:</t>
+  </si>
+  <si>
     <t>January</t>
   </si>
   <si>
@@ -118,6 +128,9 @@
   </si>
   <si>
     <t>May</t>
+  </si>
+  <si>
+    <t>Multi sheet issues with print preview</t>
   </si>
   <si>
     <t>November</t>
@@ -145,6 +158,9 @@
   </si>
   <si>
     <t>Total by {R-T-GROUP;func=FIRST}</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/office/vba/api/excel.workbook.saveas</t>
   </si>
   <si>
     <t>{R-C-COL_NAME}</t>
@@ -185,7 +201,7 @@
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +226,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -282,10 +313,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -311,8 +343,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,13 +637,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A545E9AA-B122-493F-A3EC-DA254ED66EBD}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{938967BB-2114-402B-8067-2D98A42C3B84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -622,75 +700,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" hidden="1" outlineLevel="1">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +789,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -766,10 +844,10 @@
     </row>
     <row r="3">
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>01</v>
@@ -884,121 +962,121 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="AI4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s"/>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6">
         <v>9224.05</v>
@@ -1580,10 +1658,10 @@
     <row r="10">
       <c r="A10" s="8" t="s"/>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6">
         <v>23603.94</v>
@@ -2282,10 +2360,10 @@
     <row r="16">
       <c r="A16" s="8" t="s"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6">
         <v>5382.23</v>
@@ -2633,10 +2711,10 @@
     <row r="19">
       <c r="A19" s="8" t="s"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6">
         <v>13595.85</v>
@@ -3221,7 +3299,7 @@
     <row r="25">
       <c r="A25" s="8" t="s"/>
       <c r="B25" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="7">
@@ -3351,7 +3429,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3406,10 +3484,10 @@
     </row>
     <row r="3">
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>01</v>
@@ -3524,121 +3602,121 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="AI4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s"/>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6">
         <v>9224.05</v>
@@ -4220,10 +4298,10 @@
     <row r="10">
       <c r="A10" s="8" t="s"/>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6">
         <v>23603.94</v>
@@ -4922,10 +5000,10 @@
     <row r="16">
       <c r="A16" s="8" t="s"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6">
         <v>5382.23</v>
@@ -5273,10 +5351,10 @@
     <row r="19">
       <c r="A19" s="8" t="s"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6">
         <v>13595.85</v>
@@ -5861,7 +5939,7 @@
     <row r="25">
       <c r="A25" s="8" t="s"/>
       <c r="B25" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="7">
@@ -5991,7 +6069,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6046,10 +6124,10 @@
     </row>
     <row r="3">
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>01</v>
@@ -6164,121 +6242,121 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="AI4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s"/>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6">
         <v>9224.05</v>
@@ -6860,10 +6938,10 @@
     <row r="10">
       <c r="A10" s="8" t="s"/>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6">
         <v>23603.94</v>
@@ -7562,10 +7640,10 @@
     <row r="16">
       <c r="A16" s="8" t="s"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6">
         <v>5382.23</v>
@@ -7913,10 +7991,10 @@
     <row r="19">
       <c r="A19" s="8" t="s"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6">
         <v>13595.85</v>
@@ -8501,7 +8579,7 @@
     <row r="25">
       <c r="A25" s="8" t="s"/>
       <c r="B25" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="7">

--- a/xtt_demo/ZXXT_DEMO_091_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_091_R.XLSX
@@ -88,13 +88,13 @@
     <t>August</t>
   </si>
   <si>
-    <t>Children element count: 2 </t>
+    <t>Children element count:                                                                                                   2</t>
   </si>
   <si>
-    <t>Children element count: 4 </t>
+    <t>Children element count:                                                                                                   4</t>
   </si>
   <si>
-    <t>Children element count: 5 </t>
+    <t>Children element count:                                                                                                   5</t>
   </si>
   <si>
     <t>Children element count: {R-T-CAPTION;func=COUNT}</t>
